--- a/relacao_recibos.xlsx
+++ b/relacao_recibos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB40F6-2F54-474E-8F4D-6CE83C4FD59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAF9BC-81E1-4E37-9D1B-7292A82AE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{154D80BB-8E60-4FBF-A4EA-773CB7E6EA1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="263">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -784,16 +784,50 @@
   </si>
   <si>
     <t>890,00</t>
+  </si>
+  <si>
+    <t>CONDOMINIO INGLATERRA</t>
+  </si>
+  <si>
+    <t>562,50</t>
+  </si>
+  <si>
+    <t>05.911.861/0001-45</t>
+  </si>
+  <si>
+    <t>DR. LUIZ CARLOS BAZZO</t>
+  </si>
+  <si>
+    <t>MOREIRA COMÉRCIO DE MÁRMORES E GRANITOS LTDA</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4000,00</t>
+  </si>
+  <si>
+    <t>480,00</t>
+  </si>
+  <si>
+    <t>SERRALHERIA MKM</t>
+  </si>
+  <si>
+    <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,16 +835,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -818,18 +891,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148EFC7-7D5B-48E8-B7CD-0BE7496D6C6C}">
-  <dimension ref="A1:AC91"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,27 +1401,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="B3" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2">
         <v>45566</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1293,22 +1423,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2">
         <v>45566</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="X4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z4" t="s">
         <v>29</v>
       </c>
       <c r="AA4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1316,19 +1446,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2">
         <v>45566</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="X5" t="s">
+        <v>29</v>
       </c>
       <c r="AA5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1336,22 +1469,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="2">
         <v>45566</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="AA6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1359,25 +1489,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D7" s="2">
         <v>45566</v>
       </c>
-      <c r="S7" s="1">
-        <v>-153</v>
-      </c>
-      <c r="U7" t="s">
-        <v>39</v>
-      </c>
       <c r="V7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>29</v>
       </c>
       <c r="AA7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1385,22 +1512,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2">
         <v>45566</v>
       </c>
+      <c r="S8" s="1">
+        <v>-153</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
       <c r="V8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="X8" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="AA8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1408,22 +1538,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="2">
         <v>45566</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X9" t="s">
         <v>29</v>
       </c>
       <c r="AA9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1431,22 +1561,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D10" s="2">
         <v>45566</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="X10" t="s">
         <v>29</v>
       </c>
       <c r="AA10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1454,22 +1584,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D11" s="2">
         <v>45566</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z11" t="s">
+        <v>209</v>
+      </c>
+      <c r="X11" t="s">
         <v>29</v>
       </c>
       <c r="AA11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1477,22 +1607,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="2">
         <v>45566</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Z12" t="s">
         <v>29</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1500,22 +1630,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="2">
         <v>45566</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Z13" t="s">
         <v>29</v>
       </c>
       <c r="AA13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1523,31 +1653,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D14" s="2">
         <v>45566</v>
       </c>
-      <c r="S14" s="1">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s">
-        <v>54</v>
-      </c>
       <c r="V14" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="W14" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z14" t="s">
         <v>29</v>
       </c>
       <c r="AA14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1555,22 +1676,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D15" s="2">
         <v>45566</v>
       </c>
+      <c r="S15" s="1">
+        <v>80</v>
+      </c>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
       <c r="V15" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z15" t="s">
+        <v>220</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" t="s">
         <v>29</v>
       </c>
       <c r="AA15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1578,22 +1708,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D16" s="2">
         <v>45566</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Z16" t="s">
         <v>29</v>
       </c>
       <c r="AA16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -1601,19 +1731,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2">
         <v>45566</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>29</v>
       </c>
       <c r="AA17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -1621,22 +1754,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D18" s="2">
         <v>45566</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="X18" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="AA18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -1644,22 +1774,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D19" s="2">
         <v>45566</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="X19" t="s">
         <v>29</v>
       </c>
       <c r="AA19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1667,7 +1797,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>209</v>
@@ -1678,8 +1808,11 @@
       <c r="V20" s="4" t="s">
         <v>209</v>
       </c>
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
       <c r="AA20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -1687,243 +1820,243 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2">
         <v>45566</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AA21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="2">
         <v>45566</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="X22" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="AA22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="D23" s="2">
         <v>45566</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>225</v>
+        <v>254</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>29</v>
       </c>
       <c r="AA23" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" s="2">
         <v>45566</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
         <v>29</v>
       </c>
       <c r="AA24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2">
         <v>45566</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AA25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D26" s="2">
         <v>45566</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="X26" t="s">
+        <v>29</v>
       </c>
       <c r="AA26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D27" s="2">
         <v>45566</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AA27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D28" s="2">
         <v>45566</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="AA28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D29" s="2">
         <v>45566</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="AA29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D30" s="2">
         <v>45566</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>29</v>
       </c>
       <c r="AA30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D31" s="2">
         <v>45566</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>29</v>
       </c>
       <c r="AA31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D32" s="2">
         <v>45566</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="AA32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D33" s="2">
         <v>45566</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="AA33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>219</v>
@@ -1934,119 +2067,113 @@
       <c r="V34" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="Z34" t="s">
-        <v>29</v>
-      </c>
       <c r="AA34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D35" s="2">
         <v>45566</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>29</v>
       </c>
       <c r="AA35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D36" s="2">
         <v>45566</v>
       </c>
-      <c r="S36" s="1">
-        <v>-125</v>
-      </c>
-      <c r="U36" t="s">
-        <v>39</v>
-      </c>
       <c r="V36" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="X36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z36" t="s">
         <v>29</v>
       </c>
       <c r="AA36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D37" s="2">
         <v>45566</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AA37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D38" s="2">
         <v>45566</v>
       </c>
+      <c r="S38" s="1">
+        <v>-125</v>
+      </c>
+      <c r="U38" t="s">
+        <v>39</v>
+      </c>
       <c r="V38" s="4" t="s">
-        <v>209</v>
+        <v>229</v>
+      </c>
+      <c r="X38" t="s">
+        <v>29</v>
       </c>
       <c r="AA38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D39" s="2">
         <v>45566</v>
       </c>
-      <c r="S39" s="1">
-        <v>120</v>
-      </c>
-      <c r="U39" t="s">
-        <v>54</v>
-      </c>
       <c r="V39" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="X39" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="AA39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>209</v>
@@ -2058,29 +2185,38 @@
         <v>209</v>
       </c>
       <c r="AA40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="D41" s="2">
         <v>45566</v>
       </c>
+      <c r="S41" s="1">
+        <v>120</v>
+      </c>
+      <c r="U41" t="s">
+        <v>54</v>
+      </c>
       <c r="V41" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
+      </c>
+      <c r="X41" t="s">
+        <v>29</v>
       </c>
       <c r="AA41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>209</v>
@@ -2088,96 +2224,93 @@
       <c r="D42" s="2">
         <v>45566</v>
       </c>
-      <c r="S42" s="1">
-        <v>-206</v>
-      </c>
-      <c r="U42" t="s">
-        <v>39</v>
-      </c>
       <c r="V42" s="4" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="AA42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D43" s="2">
         <v>45566</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="AA43" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D44" s="2">
         <v>45566</v>
       </c>
+      <c r="S44" s="1">
+        <v>-206</v>
+      </c>
+      <c r="U44" t="s">
+        <v>39</v>
+      </c>
       <c r="V44" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="X44" t="s">
-        <v>29</v>
+        <v>231</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D45" s="2">
         <v>45566</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="X45" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z45" t="s">
         <v>29</v>
       </c>
       <c r="AA45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D46" s="2">
         <v>45566</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>119</v>
+        <v>232</v>
+      </c>
+      <c r="X46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>216</v>
@@ -2188,219 +2321,227 @@
       <c r="V47" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="X47" t="s">
+        <v>29</v>
+      </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D48" s="2">
         <v>45566</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>29</v>
+        <v>219</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D49" s="2">
         <v>45566</v>
       </c>
       <c r="V49" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="X50" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>126</v>
+      <c r="B50" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="6">
+        <v>480</v>
+      </c>
+      <c r="D50" s="7">
+        <v>45566</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D51" s="2">
         <v>45566</v>
       </c>
       <c r="V51" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>128</v>
+        <v>209</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D52" s="2">
         <v>45566</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="X52" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="AA52" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D53" s="2">
         <v>45566</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z53" t="s">
+        <v>216</v>
+      </c>
+      <c r="X53" t="s">
         <v>29</v>
       </c>
       <c r="AA53" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D54" s="2">
         <v>45566</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="AA54" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D55" s="2">
         <v>45566</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>234</v>
+      </c>
+      <c r="X55" t="s">
         <v>29</v>
       </c>
       <c r="AA55" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D56" s="2">
         <v>45566</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>29</v>
       </c>
       <c r="AA56" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D57" s="2">
         <v>45566</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>29</v>
       </c>
       <c r="AA57" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D58" s="2">
         <v>45566</v>
       </c>
-      <c r="S58" s="1">
-        <v>600</v>
-      </c>
-      <c r="U58" t="s">
-        <v>142</v>
-      </c>
       <c r="V58" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>143</v>
+        <v>216</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>136</v>
       </c>
       <c r="AC58" t="s">
         <v>29</v>
@@ -2408,144 +2549,164 @@
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2">
         <v>45566</v>
       </c>
-      <c r="S59" s="1">
-        <v>600</v>
-      </c>
-      <c r="U59" t="s">
-        <v>142</v>
-      </c>
       <c r="V59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="AA59" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" s="2">
         <v>45566</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="AA60" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D61" s="2">
         <v>45566</v>
       </c>
+      <c r="S61" s="1">
+        <v>600</v>
+      </c>
+      <c r="U61" t="s">
+        <v>142</v>
+      </c>
       <c r="V61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Z61" t="s">
         <v>29</v>
       </c>
-      <c r="AA61" t="s">
-        <v>149</v>
+      <c r="AB61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="D62" s="2">
         <v>45566</v>
       </c>
+      <c r="S62" s="1">
+        <v>600</v>
+      </c>
+      <c r="U62" t="s">
+        <v>142</v>
+      </c>
       <c r="V62" s="4" t="s">
-        <v>209</v>
+        <v>238</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>29</v>
       </c>
       <c r="AA62" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2">
         <v>45566</v>
       </c>
       <c r="V63" s="4" t="s">
-        <v>216</v>
+        <v>239</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>29</v>
       </c>
       <c r="AA63" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="2">
         <v>45566</v>
       </c>
       <c r="V64" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Z64" t="s">
         <v>29</v>
       </c>
       <c r="AA64" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V65" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>157</v>
+      <c r="B65" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="6">
+        <v>706</v>
+      </c>
+      <c r="D65" s="7">
+        <v>45566</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>209</v>
@@ -2556,16 +2717,13 @@
       <c r="V66" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Z66" t="s">
-        <v>29</v>
-      </c>
       <c r="AA66" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>216</v>
@@ -2577,438 +2735,526 @@
         <v>216</v>
       </c>
       <c r="AA67" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D68" s="2">
         <v>45566</v>
       </c>
       <c r="V68" s="4" t="s">
-        <v>227</v>
+        <v>241</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>29</v>
       </c>
       <c r="AA68" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D69" s="2">
         <v>45566</v>
       </c>
       <c r="V69" s="4" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="AA69" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D70" s="2">
         <v>45566</v>
       </c>
       <c r="V70" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>29</v>
       </c>
       <c r="AA70" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D71" s="2">
         <v>45566</v>
       </c>
       <c r="V71" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="X71" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="AA71" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D72" s="2">
         <v>45566</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="X72" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="AA72" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D73" s="2">
         <v>45566</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="AA73" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2">
         <v>45566</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AA74" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D75" s="2">
         <v>45566</v>
       </c>
       <c r="V75" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z75" t="s">
+        <v>225</v>
+      </c>
+      <c r="X75" t="s">
         <v>29</v>
       </c>
       <c r="AA75" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D76" s="2">
         <v>45566</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z76" t="s">
+        <v>236</v>
+      </c>
+      <c r="X76" t="s">
         <v>29</v>
       </c>
       <c r="AA76" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D77" s="2">
         <v>45566</v>
       </c>
       <c r="V77" s="4" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>29</v>
       </c>
       <c r="AA77" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2">
         <v>45566</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="AA78" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D79" s="2">
         <v>45566</v>
       </c>
       <c r="V79" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Z79" t="s">
         <v>29</v>
       </c>
       <c r="AA79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>233</v>
+        <v>261</v>
+      </c>
+      <c r="C80" s="14">
+        <v>706</v>
       </c>
       <c r="D80" s="2">
         <v>45566</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="X80" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D81" s="2">
         <v>45566</v>
       </c>
       <c r="V81" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>29</v>
       </c>
       <c r="AA81" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D82" s="2">
         <v>45566</v>
       </c>
       <c r="V82" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="AA82" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D83" s="2">
         <v>45566</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AA83" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D84" s="2">
         <v>45566</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>247</v>
+        <v>224</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>29</v>
       </c>
       <c r="AA84" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D85" s="2">
         <v>45566</v>
       </c>
       <c r="V85" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
+      </c>
+      <c r="X85" t="s">
+        <v>29</v>
       </c>
       <c r="AA85" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D86" s="2">
         <v>45566</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z86" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="AA86" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D87" s="2">
         <v>45566</v>
       </c>
       <c r="V87" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AA87" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D88" s="2">
         <v>45566</v>
       </c>
       <c r="V88" s="4" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AA88" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D89" s="2">
         <v>45566</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z89" t="s">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="AA89" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D90" s="2">
         <v>45566</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AA90" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45566</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>208</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C96" s="3">
         <v>76585</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S96" s="1">
         <v>916</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V96" s="3">
         <v>77501</v>
       </c>
     </row>

--- a/relacao_recibos.xlsx
+++ b/relacao_recibos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Boletos_Automation\Office-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAF9BC-81E1-4E37-9D1B-7292A82AE847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE8F33D-111B-4CEC-A0DB-AE418745C61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{154D80BB-8E60-4FBF-A4EA-773CB7E6EA1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="329">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -36,9 +36,6 @@
     <t>REF</t>
   </si>
   <si>
-    <t>DIRF</t>
-  </si>
-  <si>
     <t>REF2</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>MARIA JULIA FERREIRA</t>
   </si>
   <si>
-    <t>ALTERACAO</t>
-  </si>
-  <si>
     <t>733.342.789.72</t>
   </si>
   <si>
@@ -654,178 +648,381 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>706,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.095,00</t>
-  </si>
-  <si>
-    <t>1.412,00</t>
-  </si>
-  <si>
-    <t>1.170,00</t>
-  </si>
-  <si>
-    <t>423,00</t>
-  </si>
-  <si>
-    <t>353,00</t>
-  </si>
-  <si>
-    <t>1.492,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
+    <t>580,00</t>
+  </si>
+  <si>
+    <t>CONDOMINIO INGLATERRA</t>
+  </si>
+  <si>
+    <t>05.911.861/0001-45</t>
+  </si>
+  <si>
+    <t>DR. LUIZ CARLOS BAZZO</t>
+  </si>
+  <si>
+    <t>MOREIRA COMÉRCIO DE MÁRMORES E GRANITOS LTDA</t>
+  </si>
+  <si>
+    <t>SERRALHERIA MKM</t>
+  </si>
+  <si>
+    <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
+  </si>
+  <si>
+    <t>13° 1 PARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.000,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">160,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">575,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">155,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">495,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">547,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">706,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">585,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">211,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">145,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">325,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">375,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">281,25  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.059,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">210,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">102,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.412,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">240,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">565,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">290,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">125,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">445,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">264,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.118,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">463,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">195,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">250,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.000,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.150,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">990,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.095,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.170,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">423,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">650,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">750,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">562,50  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">400,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">420,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">405,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">205,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.824,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">170,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.130,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">580,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">600,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">890,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">529,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.236,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">280,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">926,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">390,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">360,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">230,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">900,00  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">700,00  </t>
+  </si>
+  <si>
+    <t>1.059,00</t>
+  </si>
+  <si>
+    <t>6.000,00</t>
+  </si>
+  <si>
+    <t>480,00</t>
+  </si>
+  <si>
+    <t>1.725,00</t>
+  </si>
+  <si>
+    <t>465,00</t>
+  </si>
+  <si>
+    <t>1.485,00</t>
+  </si>
+  <si>
+    <t>376,50</t>
+  </si>
+  <si>
+    <t>1.642,50</t>
+  </si>
+  <si>
+    <t>2.118,00</t>
+  </si>
+  <si>
+    <t>1.755,00</t>
+  </si>
+  <si>
+    <t>634,50</t>
+  </si>
+  <si>
+    <t>529,50</t>
+  </si>
+  <si>
+    <t>435,00</t>
+  </si>
+  <si>
+    <t>975,00</t>
+  </si>
+  <si>
+    <t>1.125,00</t>
+  </si>
+  <si>
+    <t>843,75</t>
+  </si>
+  <si>
+    <t>3.177,00</t>
+  </si>
+  <si>
+    <t>600,00</t>
+  </si>
+  <si>
+    <t>630,00</t>
+  </si>
+  <si>
+    <t>450,00</t>
+  </si>
+  <si>
+    <t>607,50</t>
+  </si>
+  <si>
+    <t>307,50</t>
+  </si>
+  <si>
+    <t>4.236,00</t>
+  </si>
+  <si>
+    <t>255,00</t>
+  </si>
+  <si>
+    <t>1.695,00</t>
+  </si>
+  <si>
+    <t>870,00</t>
+  </si>
+  <si>
+    <t>900,00</t>
+  </si>
+  <si>
+    <t>375,00</t>
+  </si>
+  <si>
+    <t>1.335,00</t>
+  </si>
+  <si>
+    <t>793,50</t>
+  </si>
+  <si>
+    <t>6.354,00</t>
+  </si>
+  <si>
+    <t>2.238,00</t>
+  </si>
+  <si>
+    <t>420,00</t>
+  </si>
+  <si>
+    <t>1.389,00</t>
+  </si>
+  <si>
+    <t>585,00</t>
+  </si>
+  <si>
+    <t>675,00</t>
   </si>
   <si>
     <t>750,00</t>
   </si>
   <si>
-    <t>2.118,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>2.944,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>1.130,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.490,00</t>
-  </si>
-  <si>
-    <t>3.424,00</t>
-  </si>
-  <si>
-    <t>529,00</t>
-  </si>
-  <si>
-    <t>4.236,00</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>926,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>205,00</t>
-  </si>
-  <si>
-    <t>2.824,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>CONDOMINIO INGLATERRA</t>
-  </si>
-  <si>
-    <t>562,50</t>
-  </si>
-  <si>
-    <t>05.911.861/0001-45</t>
-  </si>
-  <si>
-    <t>DR. LUIZ CARLOS BAZZO</t>
-  </si>
-  <si>
-    <t>MOREIRA COMÉRCIO DE MÁRMORES E GRANITOS LTDA</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>4000,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>SERRALHERIA MKM</t>
-  </si>
-  <si>
-    <t>AMB DISTRIBUIDORA DE MED. E PROD. HOSP. LTDA</t>
+    <t>540,00</t>
+  </si>
+  <si>
+    <t>345,00</t>
+  </si>
+  <si>
+    <t>1.350,00</t>
+  </si>
+  <si>
+    <t>525,00</t>
+  </si>
+  <si>
+    <t>1.050,00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -926,9 +1123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -941,10 +1137,7 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,13 +1149,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1280,105 +1480,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C148EFC7-7D5B-48E8-B7CD-0BE7496D6C6C}">
   <dimension ref="A1:AC96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1386,36 +1587,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>209</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="Y2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>259</v>
+      <c r="B3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1423,22 +1630,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1446,22 +1656,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="X5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="X5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1469,19 +1682,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1489,22 +1705,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1512,25 +1731,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-153</v>
+      </c>
+      <c r="U8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-153</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA8" t="s">
         <v>39</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1538,22 +1760,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="X9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1561,22 +1786,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="X10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1584,22 +1812,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="X11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="X11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1607,22 +1838,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1630,22 +1864,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1653,22 +1890,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" t="s">
         <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1676,31 +1916,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S15" s="1">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="W15" t="s">
         <v>54</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="s">
         <v>55</v>
-      </c>
-      <c r="X15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1708,22 +1945,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -1731,22 +1971,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -1754,19 +1997,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA18" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -1774,22 +2020,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="X19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA19" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="X19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1797,22 +2046,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="X20" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -1820,1445 +2072,1645 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA21" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA22" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>254</v>
+        <v>208</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="Y23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="X24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA24" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="X24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="X26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="X26" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA28" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA29" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA30" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D30" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA31" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA32" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA33" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA34" t="s">
         <v>91</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA35" t="s">
         <v>93</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA36" t="s">
         <v>95</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA37" t="s">
         <v>97</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA38" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S38" s="1">
-        <v>-125</v>
-      </c>
-      <c r="U38" t="s">
-        <v>39</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="X38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA39" t="s">
         <v>101</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA40" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="X41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA41" t="s">
         <v>105</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S41" s="1">
-        <v>120</v>
-      </c>
-      <c r="U41" t="s">
-        <v>54</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="X41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA42" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA43" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA44" t="s">
         <v>111</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S44" s="1">
-        <v>-206</v>
-      </c>
-      <c r="U44" t="s">
-        <v>39</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="s">
         <v>113</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>232</v>
+        <v>114</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="X46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA47" t="s">
         <v>116</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V47" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="X47" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA48" t="s">
         <v>118</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AA49" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="5">
         <v>480</v>
       </c>
-      <c r="D50" s="7">
-        <v>45566</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="13" t="s">
-        <v>260</v>
+      <c r="D50" s="6">
+        <v>45566</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="15">
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>209</v>
+        <v>121</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="Y51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA52" t="s">
         <v>123</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V52" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="X53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA53" t="s">
         <v>125</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D53" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="X53" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA54" t="s">
         <v>127</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V54" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="X55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA55" t="s">
         <v>129</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V55" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="X55" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA56" t="s">
         <v>131</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA57" t="s">
         <v>133</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA58" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D58" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>136</v>
-      </c>
       <c r="AC58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA59" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V59" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA60" t="s">
         <v>139</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB61" t="s">
         <v>141</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S61" s="1">
-        <v>600</v>
-      </c>
-      <c r="U61" t="s">
-        <v>142</v>
-      </c>
-      <c r="V61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D62" s="2">
-        <v>45566</v>
-      </c>
-      <c r="S62" s="1">
-        <v>600</v>
-      </c>
-      <c r="U62" t="s">
         <v>142</v>
       </c>
-      <c r="V62" s="4" t="s">
-        <v>238</v>
+      <c r="C62" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="Z62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA62" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D63" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V63" s="4" t="s">
-        <v>239</v>
+        <v>144</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="Z63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D64" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V64" s="4" t="s">
-        <v>240</v>
+        <v>146</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="Z64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="B65" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="5">
         <v>706</v>
       </c>
-      <c r="D65" s="7">
-        <v>45566</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="13" t="s">
-        <v>209</v>
+      <c r="D65" s="6">
+        <v>45566</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="15">
+        <v>1059</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>209</v>
+        <v>148</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="AA66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>216</v>
+        <v>150</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S67" s="2">
+        <v>120</v>
+      </c>
+      <c r="U67" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="AA67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>241</v>
+        <v>152</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="Z68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>219</v>
+        <v>154</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="AA69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V70" s="4" t="s">
-        <v>209</v>
+        <v>156</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="Z70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V71" s="4" t="s">
-        <v>216</v>
+        <v>158</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="AA71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D72" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V72" s="4" t="s">
-        <v>227</v>
+        <v>160</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="AA72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V73" s="4" t="s">
-        <v>242</v>
+        <v>162</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="AA73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V74" s="4" t="s">
-        <v>236</v>
+        <v>164</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="AA74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V75" s="4" t="s">
-        <v>225</v>
+        <v>166</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="X75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V76" s="4" t="s">
-        <v>236</v>
+        <v>168</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="X76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V77" s="4" t="s">
-        <v>243</v>
+        <v>170</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="Z77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="AA78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V79" s="4" t="s">
-        <v>209</v>
+        <v>174</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>261</v>
-      </c>
-      <c r="C80" s="14">
+        <v>212</v>
+      </c>
+      <c r="C80" s="11">
         <v>706</v>
       </c>
-      <c r="D80" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>209</v>
+      <c r="D80" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V80" s="16">
+        <v>1059</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>178</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V81" s="4" t="s">
-        <v>244</v>
+        <v>176</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="Z81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V82" s="4" t="s">
-        <v>231</v>
+        <v>178</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="AA82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V83" s="4" t="s">
-        <v>233</v>
+        <v>180</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="AA83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V84" s="4" t="s">
-        <v>224</v>
+        <v>182</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="Z84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D85" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V85" s="4" t="s">
-        <v>233</v>
+        <v>184</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="X85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V86" s="4" t="s">
-        <v>234</v>
+        <v>186</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="AA86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V87" s="4" t="s">
-        <v>245</v>
+        <v>188</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="AA87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>246</v>
+        <v>190</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="AA88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V89" s="4" t="s">
-        <v>247</v>
+        <v>192</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="AA89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V90" s="4" t="s">
-        <v>209</v>
+        <v>194</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="AA90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D91" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V91" s="4" t="s">
-        <v>248</v>
+        <v>196</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="Z91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D92" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V92" s="4" t="s">
-        <v>249</v>
+        <v>198</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="AA92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V93" s="4" t="s">
-        <v>234</v>
+        <v>200</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="AA93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D94" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V94" s="4" t="s">
-        <v>233</v>
+        <v>202</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="Z94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D95" s="2">
-        <v>45566</v>
-      </c>
-      <c r="V95" s="4" t="s">
-        <v>234</v>
+        <v>204</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="AA95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="3">
+        <v>206</v>
+      </c>
+      <c r="C96" s="2">
         <v>76585</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96" s="2">
         <v>916</v>
       </c>
-      <c r="V96" s="3">
+      <c r="V96">
         <v>77501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>